--- a/Products.xlsx
+++ b/Products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\OneDrive\Рабочий стол\Марина\MY PROJECTS\Online shop\Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\OneDrive\Рабочий стол\Марина\MY PROJECTS\Online shop\Restored - Copy - Copy - Copy - Copy\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1B8C1D-2AD2-4FB4-9DE3-47DBE7500C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37888692-6865-4078-B8A6-47C01C1A09B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,7 +919,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,7 +1547,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
